--- a/biology/Zoologie/Dakotaraptor/Dakotaraptor.xlsx
+++ b/biology/Zoologie/Dakotaraptor/Dakotaraptor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dakotaraptor steini
 Dakotaraptor est un genre fossile de dinosaures théropodes de la famille des Dromaeosauridae du Crétacé supérieur (Maastrichien). Ce grand dromaeosauridé, d'une taille estimée à 5,5 mètres, est représenté par une seule espèce, Dakotaraptor steini, dont les restes fossiles ont été découverts dans la formation de Hell Creek, dans le Dakota du Sud, aux États-Unis.
@@ -512,14 +524,86 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dakotaraptor est classé dans la famille des Dromaeosauridae. Une analyse cladistique a montré que Dakotaraptor est le taxon frère de Dromaeosaurus. Quoique proche d'autres dromaeosauridés gigantesques, Dakotaraptor pourrait représenter un quatrième exemple distinct de l'augmentation de la taille des dromaeosauridés, outre Deinonychus, Unenlagia et le clade incluant Achillobator et Utahraptor[1]. 
-Cladogramme
-L'analyse phylogénétique menée par Robert DePalma (d) et son équipe a conduit au cladogramme suivant[1] :
-Étymologie
-Le nom du genre Dakotaraptor fait référence au lieu de sa découverte, le Dakota, auquel est adjoint raptor, le nom générique des dinosaures théropodes[1].
-Le nom spécifique, steini, a été donné en l'honneur du paléontologue Walter W. Stein[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dakotaraptor est classé dans la famille des Dromaeosauridae. Une analyse cladistique a montré que Dakotaraptor est le taxon frère de Dromaeosaurus. Quoique proche d'autres dromaeosauridés gigantesques, Dakotaraptor pourrait représenter un quatrième exemple distinct de l'augmentation de la taille des dromaeosauridés, outre Deinonychus, Unenlagia et le clade incluant Achillobator et Utahraptor. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dakotaraptor</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dakotaraptor</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cladogramme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse phylogénétique menée par Robert DePalma (d) et son équipe a conduit au cladogramme suivant :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dakotaraptor</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dakotaraptor</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Dakotaraptor fait référence au lieu de sa découverte, le Dakota, auquel est adjoint raptor, le nom générique des dinosaures théropodes.
+Le nom spécifique, steini, a été donné en l'honneur du paléontologue Walter W. Stein.
 </t>
         </is>
       </c>
